--- a/05_Entregable 3/previo/Dominio de Valores/DdV_17_UPMA_FORMATO DGO UPMA  FLORA 2022, 2023 Y 2024.xlsx
+++ b/05_Entregable 3/previo/Dominio de Valores/DdV_17_UPMA_FORMATO DGO UPMA  FLORA 2022, 2023 Y 2024.xlsx
@@ -6,20 +6,20 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="13125" windowHeight="6105" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="ZONA_MADERA 2022, 2023 Y 2024" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="SUB ZONA_MADERA 2022, 2023 Y 2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="CANTON_MADERA 2022, 2023 Y 202" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="CODIGO SUBCIRCUITO_MADERA 2022" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="DISTRITO_MADERA 2022, 2023 Y 2" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="CIRCUITO_MADERA 2022, 2023 Y 2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="SUBCIRCUITO_MADERA 2022, 2023 " sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="UNIDAD ESPECIFICA QUE REALIZA " sheetId="8" state="visible" r:id="rId8"/>
-    <sheet name="TIPO DE OPERATIVO_MADERA 2022," sheetId="9" state="visible" r:id="rId9"/>
-    <sheet name="CATEGORIA_MADERA 2022, 2023 Y " sheetId="10" state="visible" r:id="rId10"/>
-    <sheet name="SUB CATEGORIA_MADERA 2022, 202" sheetId="11" state="visible" r:id="rId11"/>
-    <sheet name="TIPO I_MADERA 2022, 2023 Y 202" sheetId="12" state="visible" r:id="rId12"/>
-    <sheet name="TIPO II_MADERA 2022, 2023 Y 20" sheetId="13" state="visible" r:id="rId13"/>
-    <sheet name="MEDIDA_MADERA 2022, 2023 Y 202" sheetId="14" state="visible" r:id="rId14"/>
+    <sheet name="zona_MADERA 2022, 2023 Y 2024" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="subzona_MADERA 2022, 2023 Y 20" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="canton_MADERA 2022, 2023 Y 202" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="subcircuito_MADERA 2022, 2023 " sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="ndistrito_MADERA 2022, 2023 Y " sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="ncircuito_MADERA 2022, 2023 Y " sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="nsub_circuito_MADERA 2022, 202" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="unidad_rescate_MADERA 2022, 20" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="tipo_operativo_MADERA 2022, 20" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="categoria_MADERA 2022, 2023 Y " sheetId="10" state="visible" r:id="rId10"/>
+    <sheet name="sub_categoria_MADERA 2022, 202" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet name="tipo_1_MADERA 2022, 2023 Y 202" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet name="tipo_2_MADERA 2022, 2023 Y 202" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet name="cantidad_MADERA 2022, 2023 Y 2" sheetId="14" state="visible" r:id="rId14"/>
   </sheets>
 </workbook>
 </file>
